--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/322858/IdeaProjects/SpiritProject/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04308DF0-4546-4948-BAC8-27E9ABDBC734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C48732-1AA0-9A41-AA42-8D92683B8EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="2080" windowWidth="25600" windowHeight="14480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33380" yWindow="2100" windowWidth="25600" windowHeight="14480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>password1</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>rutest@test.com</t>
+  </si>
+  <si>
+    <t>josh84@test.com</t>
+  </si>
+  <si>
+    <t>Joshtester@22</t>
   </si>
 </sst>
 </file>
@@ -620,15 +626,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB5E0E1-2582-BB46-99F2-8DACE03F26E1}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -645,6 +652,14 @@
       </c>
       <c r="B2" s="3" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -653,6 +668,7 @@
     <hyperlink ref="B1" r:id="rId2" xr:uid="{4B661D36-0C62-514F-9C4B-B5BE4E0767AF}"/>
     <hyperlink ref="A2" r:id="rId3" xr:uid="{AF76131B-3700-0C47-889D-63D6722490C2}"/>
     <hyperlink ref="A1" r:id="rId4" xr:uid="{8AFFC58E-2096-5842-8DFA-F3D25E232036}"/>
+    <hyperlink ref="B3" r:id="rId5" xr:uid="{AABE2FFA-ACBF-A649-9650-B30BB67FCA4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
